--- a/Daisy-xls/ResearchPages/Spanish/research-bladder-cancer - Spanish.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/research-bladder-cancer - Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>URL</t>
   </si>
@@ -36,15 +36,9 @@
     <t>New URL</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/cancer/instantaneas/vejiga</t>
-  </si>
-  <si>
     <t>Instantánea del cáncer de vejiga</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/SmokingBladderRiskSpanish</t>
-  </si>
-  <si>
     <t>Fumar cigarrillos está relacionado con la mitad de los casos de cáncer de vejiga en mujeres</t>
   </si>
   <si>
@@ -52,6 +46,15 @@
   </si>
   <si>
     <t>Spanish</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/vejiga</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/SmokingBladderRiskSpanish</t>
   </si>
 </sst>
 </file>
@@ -86,11 +89,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -107,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,46 +132,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -179,17 +154,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,84 +477,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="56.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="64.109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>725750</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11">
+        <v>41948</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B3" s="12">
+        <v>105086</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9">
-        <v>41948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11">
         <v>40771</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E7">
-    <sortCondition descending="1" ref="E2"/>
+  <sortState ref="B2:G7">
+    <sortCondition descending="1" ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -583,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,7 +589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
